--- a/TA buku/Results/Sentiwordnet/hasil_AMBIENCE.xlsx
+++ b/TA buku/Results/Sentiwordnet/hasil_AMBIENCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="258">
   <si>
     <t>id</t>
   </si>
@@ -613,13 +613,13 @@
     <t>kills</t>
   </si>
   <si>
-    <t>relaxed</t>
+    <t>stylish</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>top</t>
+    <t>-|-|-</t>
   </si>
   <si>
     <t>small</t>
@@ -670,7 +670,7 @@
     <t>delightful</t>
   </si>
   <si>
-    <t>like</t>
+    <t>dark</t>
   </si>
   <si>
     <t>good|hang</t>
@@ -691,6 +691,12 @@
     <t>fun</t>
   </si>
   <si>
+    <t>-|-</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>special|special|nothing</t>
   </si>
   <si>
@@ -763,6 +769,9 @@
     <t>attractive|attractive</t>
   </si>
   <si>
+    <t>indoor</t>
+  </si>
+  <si>
     <t>simple</t>
   </si>
   <si>
@@ -770,6 +779,9 @@
   </si>
   <si>
     <t>love</t>
+  </si>
+  <si>
+    <t>-|-|-|-</t>
   </si>
   <si>
     <t>positive</t>
@@ -1173,10 +1185,10 @@
         <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1196,10 +1208,10 @@
         <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1219,10 +1231,10 @@
         <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1242,10 +1254,10 @@
         <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G5">
         <v>0.75</v>
@@ -1265,10 +1277,10 @@
         <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G6">
         <v>0.125</v>
@@ -1288,10 +1300,10 @@
         <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G7">
         <v>0.875</v>
@@ -1311,10 +1323,10 @@
         <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G8">
         <v>0.875</v>
@@ -1334,10 +1346,10 @@
         <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G9">
         <v>0.5</v>
@@ -1357,10 +1369,10 @@
         <v>196</v>
       </c>
       <c r="E10" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F10" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G10">
         <v>0.375</v>
@@ -1380,10 +1392,10 @@
         <v>197</v>
       </c>
       <c r="E11" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G11">
         <v>0.5</v>
@@ -1403,10 +1415,10 @@
         <v>198</v>
       </c>
       <c r="E12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1426,13 +1438,13 @@
         <v>199</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G13">
-        <v>-0.625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1449,10 +1461,10 @@
         <v>200</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F14" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G14">
         <v>0.875</v>
@@ -1472,10 +1484,10 @@
         <v>201</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1495,10 +1507,10 @@
         <v>202</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G16">
         <v>-0.375</v>
@@ -1518,10 +1530,10 @@
         <v>203</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F17" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G17">
         <v>0.5</v>
@@ -1541,10 +1553,10 @@
         <v>204</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F18" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1564,10 +1576,10 @@
         <v>205</v>
       </c>
       <c r="E19" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G19">
         <v>0.5</v>
@@ -1587,10 +1599,10 @@
         <v>206</v>
       </c>
       <c r="E20" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F20" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1610,10 +1622,10 @@
         <v>207</v>
       </c>
       <c r="E21" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G21">
         <v>0.75</v>
@@ -1633,10 +1645,10 @@
         <v>208</v>
       </c>
       <c r="E22" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1656,10 +1668,10 @@
         <v>209</v>
       </c>
       <c r="E23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G23">
         <v>0.75</v>
@@ -1679,10 +1691,10 @@
         <v>210</v>
       </c>
       <c r="E24" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G24">
         <v>0.125</v>
@@ -1702,10 +1714,10 @@
         <v>211</v>
       </c>
       <c r="E25" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1725,10 +1737,10 @@
         <v>212</v>
       </c>
       <c r="E26" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G26">
         <v>-0.625</v>
@@ -1748,10 +1760,10 @@
         <v>213</v>
       </c>
       <c r="E27" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1771,10 +1783,10 @@
         <v>214</v>
       </c>
       <c r="E28" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G28">
         <v>0.5</v>
@@ -1794,10 +1806,10 @@
         <v>215</v>
       </c>
       <c r="E29" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G29">
         <v>0.5</v>
@@ -1817,10 +1829,10 @@
         <v>216</v>
       </c>
       <c r="E30" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G30">
         <v>-0.375</v>
@@ -1840,10 +1852,10 @@
         <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F31" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G31">
         <v>0.875</v>
@@ -1863,10 +1875,10 @@
         <v>217</v>
       </c>
       <c r="E32" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G32">
         <v>0.75</v>
@@ -1886,10 +1898,10 @@
         <v>204</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1909,13 +1921,13 @@
         <v>218</v>
       </c>
       <c r="E34" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G34">
-        <v>-0.25</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1932,10 +1944,10 @@
         <v>219</v>
       </c>
       <c r="E35" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F35" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G35">
         <v>0.75</v>
@@ -1955,10 +1967,10 @@
         <v>220</v>
       </c>
       <c r="E36" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F36" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1978,10 +1990,10 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F37" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G37">
         <v>0.5</v>
@@ -2001,10 +2013,10 @@
         <v>221</v>
       </c>
       <c r="E38" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F38" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G38">
         <v>0.25</v>
@@ -2024,10 +2036,10 @@
         <v>222</v>
       </c>
       <c r="E39" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F39" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G39">
         <v>0.5</v>
@@ -2047,10 +2059,10 @@
         <v>223</v>
       </c>
       <c r="E40" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F40" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G40">
         <v>-0.25</v>
@@ -2070,10 +2082,10 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F41" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G41">
         <v>-0.375</v>
@@ -2093,10 +2105,10 @@
         <v>224</v>
       </c>
       <c r="E42" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F42" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2113,13 +2125,13 @@
         <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E43" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F43" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2135,11 +2147,14 @@
       <c r="C44" t="s">
         <v>139</v>
       </c>
+      <c r="D44" t="s">
+        <v>226</v>
+      </c>
       <c r="E44" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F44" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2159,10 +2174,10 @@
         <v>200</v>
       </c>
       <c r="E45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G45">
         <v>0.875</v>
@@ -2179,13 +2194,13 @@
         <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F46" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2202,13 +2217,13 @@
         <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E47" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F47" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2225,13 +2240,13 @@
         <v>143</v>
       </c>
       <c r="D48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F48" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2251,10 +2266,10 @@
         <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F49" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G49">
         <v>0.875</v>
@@ -2271,13 +2286,13 @@
         <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E50" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F50" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2294,13 +2309,13 @@
         <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E51" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F51" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G51">
         <v>-0.75</v>
@@ -2317,13 +2332,13 @@
         <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E52" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F52" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G52">
         <v>0.75</v>
@@ -2343,10 +2358,10 @@
         <v>204</v>
       </c>
       <c r="E53" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F53" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2363,13 +2378,13 @@
         <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E54" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F54" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G54">
         <v>0.875</v>
@@ -2389,10 +2404,10 @@
         <v>200</v>
       </c>
       <c r="E55" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F55" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G55">
         <v>0.875</v>
@@ -2409,13 +2424,13 @@
         <v>151</v>
       </c>
       <c r="D56" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E56" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F56" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G56">
         <v>0.625</v>
@@ -2435,10 +2450,10 @@
         <v>200</v>
       </c>
       <c r="E57" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F57" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G57">
         <v>0.875</v>
@@ -2455,13 +2470,13 @@
         <v>153</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E58" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F58" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G58">
         <v>0.5</v>
@@ -2478,13 +2493,13 @@
         <v>154</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E59" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F59" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G59">
         <v>0.625</v>
@@ -2504,10 +2519,10 @@
         <v>204</v>
       </c>
       <c r="E60" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F60" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2524,13 +2539,13 @@
         <v>156</v>
       </c>
       <c r="D61" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E61" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F61" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G61">
         <v>0.625</v>
@@ -2547,13 +2562,13 @@
         <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E62" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F62" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2573,10 +2588,10 @@
         <v>204</v>
       </c>
       <c r="E63" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F63" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2593,13 +2608,13 @@
         <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E64" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F64" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G64">
         <v>-0.625</v>
@@ -2616,13 +2631,13 @@
         <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E65" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F65" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G65">
         <v>1.5</v>
@@ -2642,10 +2657,10 @@
         <v>213</v>
       </c>
       <c r="E66" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F66" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2662,13 +2677,13 @@
         <v>162</v>
       </c>
       <c r="D67" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E67" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F67" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G67">
         <v>-0.625</v>
@@ -2685,13 +2700,13 @@
         <v>163</v>
       </c>
       <c r="D68" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E68" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F68" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G68">
         <v>-0.75</v>
@@ -2708,13 +2723,13 @@
         <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E69" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F69" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G69">
         <v>0.75</v>
@@ -2731,13 +2746,13 @@
         <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E70" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F70" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G70">
         <v>-0</v>
@@ -2754,13 +2769,13 @@
         <v>166</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E71" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F71" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G71">
         <v>0.125</v>
@@ -2777,13 +2792,13 @@
         <v>167</v>
       </c>
       <c r="D72" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E72" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F72" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G72">
         <v>0.625</v>
@@ -2800,13 +2815,13 @@
         <v>168</v>
       </c>
       <c r="D73" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E73" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F73" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2823,13 +2838,13 @@
         <v>169</v>
       </c>
       <c r="D74" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E74" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F74" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G74">
         <v>1.5</v>
@@ -2846,13 +2861,13 @@
         <v>170</v>
       </c>
       <c r="D75" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E75" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F75" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2869,13 +2884,13 @@
         <v>171</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E76" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F76" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G76">
         <v>1.75</v>
@@ -2892,13 +2907,13 @@
         <v>172</v>
       </c>
       <c r="D77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E77" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F77" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G77">
         <v>0.625</v>
@@ -2915,13 +2930,13 @@
         <v>173</v>
       </c>
       <c r="D78" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E78" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F78" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G78">
         <v>0.125</v>
@@ -2938,13 +2953,13 @@
         <v>174</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E79" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F79" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G79">
         <v>-0.375</v>
@@ -2960,11 +2975,14 @@
       <c r="C80" t="s">
         <v>175</v>
       </c>
+      <c r="D80" t="s">
+        <v>226</v>
+      </c>
       <c r="E80" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F80" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2984,10 +3002,10 @@
         <v>200</v>
       </c>
       <c r="E81" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F81" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G81">
         <v>0.875</v>
@@ -3004,13 +3022,13 @@
         <v>177</v>
       </c>
       <c r="D82" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E82" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F82" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G82">
         <v>1.75</v>
@@ -3027,13 +3045,13 @@
         <v>178</v>
       </c>
       <c r="D83" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E83" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F83" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3050,16 +3068,16 @@
         <v>179</v>
       </c>
       <c r="D84" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="E84" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F84" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G84">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3076,10 +3094,10 @@
         <v>204</v>
       </c>
       <c r="E85" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F85" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3095,11 +3113,14 @@
       <c r="C86" t="s">
         <v>181</v>
       </c>
+      <c r="D86" t="s">
+        <v>225</v>
+      </c>
       <c r="E86" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F86" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3119,10 +3140,10 @@
         <v>200</v>
       </c>
       <c r="E87" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F87" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G87">
         <v>0.875</v>
@@ -3142,10 +3163,10 @@
         <v>190</v>
       </c>
       <c r="E88" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F88" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3165,10 +3186,10 @@
         <v>200</v>
       </c>
       <c r="E89" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F89" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G89">
         <v>0.875</v>
@@ -3188,10 +3209,10 @@
         <v>204</v>
       </c>
       <c r="E90" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F90" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3207,11 +3228,14 @@
       <c r="C91" t="s">
         <v>186</v>
       </c>
+      <c r="D91" t="s">
+        <v>226</v>
+      </c>
       <c r="E91" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F91" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3228,13 +3252,13 @@
         <v>187</v>
       </c>
       <c r="D92" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="E92" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F92" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G92">
         <v>-0.625</v>
